--- a/meta/procedure_GSheetsOnly.xlsx
+++ b/meta/procedure_GSheetsOnly.xlsx
@@ -187,7 +187,7 @@
     <t>Defining a Pattern in Nature</t>
   </si>
   <si>
-    <t>This presentation is long (100+ slides), but it actually goes pretty fast. It efficiently guides a card-based "song" and dance simulated data collection activity students will then analyze to learn about variation in animal mating and parental behavioral adaptations.</t>
+    <t>A fun activity blending creative movement, cards, animal videos, and data analysis. Don't be scared off by the length of the presentation—it goes pretty fast—though you may need more than one class period to finish.</t>
   </si>
   <si>
     <t>Part 1 will likely take 2 class periods.</t>

--- a/meta/procedure_GSheetsOnly.xlsx
+++ b/meta/procedure_GSheetsOnly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Edu/Lessons/guardianFrogs_sci/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CFF0EE-C57B-D142-A6D3-A9B0BA52F19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6324CEEC-3A30-8145-953B-23893D22AF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,16 +494,16 @@
     <t>Sequence</t>
   </si>
   <si>
-    <t>Let's Go to Borneo!</t>
-  </si>
-  <si>
-    <t>Caring or Competitive?</t>
-  </si>
-  <si>
     <t>Students "collect" and analyze data in a fun activity blending creative movement, cards, animal videos, and data literacy. Don't be scared off by the length of the presentation—it goes pretty fast—though you may need more than one class period to finish.</t>
   </si>
   <si>
     <t>This lesson gives students a chance to use real data collected from the field in Borneo to test whether guardian frogs are the first known amphibian with sex role reversal (caring males and competitive females).</t>
+  </si>
+  <si>
+    <t>Defining a Pattern in Nature – Which sex tends to be caring vs competitive?</t>
+  </si>
+  <si>
+    <t>Let's Go to Borneo! Testing hypotheses with real data from the field</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1338,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1394,10 +1394,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
@@ -1411,10 +1411,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="13"/>

--- a/meta/procedure_GSheetsOnly.xlsx
+++ b/meta/procedure_GSheetsOnly.xlsx
@@ -413,10 +413,10 @@
     <t>The worksheet guides students through a basic summary analysis and reflection on the data.</t>
   </si>
   <si>
-    <t xml:space="preserve">What students should gain from this exercise:
-- recognize that there is a lot of variation in nature
-- a general recognition that when one sex contributes significantly more parental investment, it frees the other sex to evolve adaptations to compete for mates
-- they should independently conclude that the majority of species have "caring females" and "competitive males" (*conventional sex roles*), while recognizing that there are many cases where both parents contribute equivalently, and some species with *sex role reversal*.  
+    <t xml:space="preserve">What students should independently learn from this analysis:
+- there is a lot of variation in nature
+- when one sex contributes significantly more parental investment, it frees the other sex to evolve adaptations to compete for mates
+- while the majority of species have "caring females" and "competitive males" (*conventional sex roles*), there are many cases where both parents contribute equivalently, and some species show *sex role reversal*
 </t>
   </si>
   <si>
@@ -426,7 +426,7 @@
     <t>Immersion in a tropical forest</t>
   </si>
   <si>
-    <t>As students are streaming into the class, have Slide 2 playing {vid2} with sound on :loud_sound:</t>
+    <t>As students are streaming into the class, have Slide 2 playing the {vid2} with sound on :loud_sound:</t>
   </si>
   <si>
     <t>This looping video alternates between showing a planetary view of where we're going in this trip to sights and sounds from the field.</t>

--- a/meta/procedure_GSheetsOnly.xlsx
+++ b/meta/procedure_GSheetsOnly.xlsx
@@ -303,7 +303,7 @@
   <si>
     <t>Chunks: 6
 Steps: 6 
-Dur = 45 ✖</t>
+Dur = 45 ✓</t>
   </si>
   <si>
     <t>"Role With It" Rules</t>
@@ -10597,7 +10597,9 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
         <v>3</v>
       </c>
-      <c r="N4" s="42"/>
+      <c r="N4" s="31">
+        <v>45.0</v>
+      </c>
       <c r="O4" s="22" t="s">
         <v>42</v>
       </c>

--- a/meta/procedure_GSheetsOnly.xlsx
+++ b/meta/procedure_GSheetsOnly.xlsx
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="100">
   <si>
     <t>Part</t>
   </si>
@@ -262,7 +262,7 @@
     <t>A quick activity to get students thinking about the behavioral roles that males and females play across the animal kingdom.</t>
   </si>
   <si>
-    <t>Students will pick one of the supplied adjectives and categorize it to one of the sexes, and provide an example of a nonhuman animal that demonstrates this adjective. The idea is to have students think about their preconceptions about *sex roles*. We define it here, but won't introduce the term until part 2. A reason for this is that the utility of the term *sex roles* itself is [being argued about in the scientific literature](https://scholar.google.com/scholar?hl=en&amp;as_sdt=0%2C43&amp;q=On+anisogamy+and+the+evolution+of+%E2%80%98sex+roles%E2%80%99&amp;btnG=&amp;oq=on+anisogamy). 
+    <t>Students will pick one of the supplied adjectives and categorize it to one of the sexes, and provide an example of a nonhuman animal that demonstrates this adjective. The idea is to have students think about their preconceptions about *sex roles*. We define it here for you, but won't introduce this term until part 2. A reason for this is that the utility of the term *sex roles* itself is [being argued about in the scientific literature](https://scholar.google.com/scholar?hl=en&amp;as_sdt=0%2C43&amp;q=On+anisogamy+and+the+evolution+of+%E2%80%98sex+roles%E2%80%99&amp;btnG=&amp;oq=on+anisogamy). 
 We want students to understand that there is a general pattern of how male and female animals tend to behave, but these are not actually prescriptive *roles* and there is a great deal of variation within and across species.</t>
   </si>
   <si>
@@ -352,7 +352,7 @@
     <t>Everything downstream requires that all students collect the data they are introducing. Students will likely need periodic reminders to focus and take down the data to move on. We've added the timers as a reminder.</t>
   </si>
   <si>
-    <t>dewlap=the extendable flap under some lizards (such as the green anole), which is used for competition and mate attraction
+    <t>dewlap=the extendable flap under some lizards' necks (e.g. in green anoles), which is used for competition and mate attraction
 wattle=a fleshy flap of skin on some birds (such as turkeys and jacanas) that likely plays a role in mate choice</t>
   </si>
   <si>
@@ -481,6 +481,9 @@
   </si>
   <si>
     <t>In order to complete the primary task, students will have to compare the units of the X and Y axis on a scatter plot to the values in the table in order to figure out how to label the figure. They will also have to compare the relative values of males and females in order to label the legend key. Once they have figured out the main task, students are asked to interpret whether the data meet criterion 3: that females call more than males (they do). Finally, students are asked to write a persuasive paragraph synthesizing what they have learned to  explain why guardian frogs deserve more research funding and what will be lost if they are allowed to go extinct.</t>
+  </si>
+  <si>
+    <t>When you finish teaching this lesson, we would really love to hear what you thought! Please fill out a simple survey in the Feedback section below.</t>
   </si>
   <si>
     <t>Sequence</t>
@@ -11083,7 +11086,9 @@
       </c>
       <c r="I17" s="35"/>
       <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
+      <c r="K17" s="40" t="s">
+        <v>98</v>
+      </c>
       <c r="M17" s="20"/>
       <c r="N17" s="42"/>
       <c r="O17" s="22" t="s">
@@ -31816,7 +31821,7 @@
         <v>count Part</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" ht="15.0" customHeight="1">

--- a/meta/procedure_GSheetsOnly.xlsx
+++ b/meta/procedure_GSheetsOnly.xlsx
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="101">
   <si>
     <t>Part</t>
   </si>
@@ -481,6 +481,9 @@
   </si>
   <si>
     <t>In order to complete the primary task, students will have to compare the units of the X and Y axis on a scatter plot to the values in the table in order to figure out how to label the figure. They will also have to compare the relative values of males and females in order to label the legend key. Once they have figured out the main task, students are asked to interpret whether the data meet criterion 3: that females call more than males (they do). Finally, students are asked to write a persuasive paragraph synthesizing what they have learned to  explain why guardian frogs deserve more research funding and what will be lost if they are allowed to go extinct.</t>
+  </si>
+  <si>
+    <t>If you'd like to have students refer to outside resources for their final essay, you can assign one of the articles listed in [the Background Section](#background).</t>
   </si>
   <si>
     <t>When you finish teaching this lesson, we would really love to hear what you thought! Please fill out a simple survey in the Feedback section below.</t>
@@ -11085,9 +11088,11 @@
         <v>97</v>
       </c>
       <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
+      <c r="J17" s="40" t="s">
+        <v>98</v>
+      </c>
       <c r="K17" s="40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M17" s="20"/>
       <c r="N17" s="42"/>
@@ -31821,7 +31826,7 @@
         <v>count Part</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" ht="15.0" customHeight="1">
